--- a/data/NewUser.xlsx
+++ b/data/NewUser.xlsx
@@ -34,16 +34,16 @@
     <t xml:space="preserve">PRSN_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">397310047</t>
+    <t xml:space="preserve">19310074</t>
   </si>
   <si>
-    <t xml:space="preserve">09-01-1992</t>
+    <t xml:space="preserve">11-11-1975</t>
   </si>
   <si>
-    <t xml:space="preserve">95407</t>
+    <t xml:space="preserve">59920</t>
   </si>
   <si>
-    <t xml:space="preserve">0047</t>
+    <t xml:space="preserve">0074</t>
   </si>
 </sst>
 </file>
@@ -150,7 +150,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
   </cols>
